--- a/REGULAR/OJT/NEW DONE/LUNA, ROMEO.xlsx
+++ b/REGULAR/OJT/NEW DONE/LUNA, ROMEO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVONITALLA FAMILY\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="112">
   <si>
     <t>PERIOD</t>
   </si>
@@ -357,6 +357,27 @@
   </si>
   <si>
     <t>6/26,27,28/2015</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>TOPS</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1240,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1283,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1347,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1407,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1473,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1536,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1634,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1693,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1758,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1801,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1876,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2062,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2128,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2186,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2252,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2308,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2383,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2426,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2492,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2548,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2646,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2709,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2775,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K443" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K449" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3120,7 +3141,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3132,30 +3153,30 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K443"/>
+  <dimension ref="A2:K449"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A239" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B245" sqref="B245"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A345" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="C357" sqref="C357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3176,7 +3197,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3194,7 +3215,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3203,7 +3224,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="55" t="s">
+        <v>106</v>
+      </c>
       <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3212,7 +3235,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3220,7 +3243,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3233,7 +3256,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3250,7 +3273,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3285,7 +3308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3294,7 +3317,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>215.91700000000003</v>
+        <v>270.91700000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3304,12 +3327,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>350.91700000000003</v>
+        <v>430.91700000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3331,7 +3354,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>44</v>
       </c>
@@ -3351,7 +3374,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>45</v>
       </c>
@@ -3375,7 +3398,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>47</v>
       </c>
@@ -3393,7 +3416,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>48</v>
       </c>
@@ -3413,7 +3436,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>49</v>
@@ -3431,7 +3454,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>50</v>
       </c>
@@ -3451,7 +3474,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>51</v>
       </c>
@@ -3469,7 +3492,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>52</v>
       </c>
@@ -3489,7 +3512,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>53</v>
@@ -3507,7 +3530,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>54</v>
       </c>
@@ -3531,7 +3554,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>56</v>
       </c>
@@ -3555,7 +3578,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>57</v>
       </c>
@@ -3573,7 +3596,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>58</v>
       </c>
@@ -3597,7 +3620,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>59</v>
       </c>
@@ -3615,7 +3638,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
         <v>58</v>
       </c>
@@ -3639,7 +3662,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>60</v>
       </c>
@@ -3657,7 +3680,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>35796</v>
       </c>
@@ -3675,7 +3698,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35827</v>
       </c>
@@ -3693,7 +3716,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35855</v>
       </c>
@@ -3711,7 +3734,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>35886</v>
       </c>
@@ -3729,7 +3752,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>35916</v>
       </c>
@@ -3751,7 +3774,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35947</v>
       </c>
@@ -3769,7 +3792,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>35977</v>
       </c>
@@ -3787,7 +3810,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36008</v>
       </c>
@@ -3805,7 +3828,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36039</v>
       </c>
@@ -3823,7 +3846,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36069</v>
       </c>
@@ -3841,7 +3864,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36100</v>
       </c>
@@ -3859,7 +3882,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36130</v>
       </c>
@@ -3883,7 +3906,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>61</v>
       </c>
@@ -3905,7 +3928,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36161</v>
       </c>
@@ -3925,7 +3948,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36192</v>
       </c>
@@ -3945,7 +3968,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36220</v>
       </c>
@@ -3965,7 +3988,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36251</v>
       </c>
@@ -3985,7 +4008,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36281</v>
       </c>
@@ -4005,7 +4028,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36312</v>
       </c>
@@ -4025,7 +4048,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36342</v>
       </c>
@@ -4045,7 +4068,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36373</v>
       </c>
@@ -4065,7 +4088,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36404</v>
       </c>
@@ -4085,7 +4108,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36434</v>
       </c>
@@ -4105,7 +4128,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36465</v>
       </c>
@@ -4125,7 +4148,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36495</v>
       </c>
@@ -4149,7 +4172,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>62</v>
       </c>
@@ -4171,7 +4194,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36526</v>
       </c>
@@ -4191,7 +4214,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36557</v>
       </c>
@@ -4211,7 +4234,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36586</v>
       </c>
@@ -4231,7 +4254,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36617</v>
       </c>
@@ -4251,7 +4274,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36647</v>
       </c>
@@ -4271,7 +4294,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36678</v>
       </c>
@@ -4291,7 +4314,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36708</v>
       </c>
@@ -4311,7 +4334,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36739</v>
       </c>
@@ -4331,7 +4354,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36770</v>
       </c>
@@ -4351,7 +4374,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36800</v>
       </c>
@@ -4371,7 +4394,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>36831</v>
       </c>
@@ -4391,7 +4414,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36861</v>
       </c>
@@ -4415,7 +4438,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>65</v>
       </c>
@@ -4437,7 +4460,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>36892</v>
       </c>
@@ -4457,7 +4480,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36923</v>
       </c>
@@ -4477,7 +4500,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36951</v>
       </c>
@@ -4497,7 +4520,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>36982</v>
       </c>
@@ -4517,7 +4540,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37012</v>
       </c>
@@ -4537,7 +4560,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37043</v>
       </c>
@@ -4557,7 +4580,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37073</v>
       </c>
@@ -4577,7 +4600,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>37104</v>
       </c>
@@ -4597,7 +4620,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37135</v>
       </c>
@@ -4617,7 +4640,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37165</v>
       </c>
@@ -4637,7 +4660,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37196</v>
       </c>
@@ -4657,7 +4680,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37226</v>
       </c>
@@ -4681,7 +4704,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>66</v>
       </c>
@@ -4703,7 +4726,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37257</v>
       </c>
@@ -4723,7 +4746,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37288</v>
       </c>
@@ -4743,7 +4766,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37316</v>
       </c>
@@ -4763,7 +4786,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37347</v>
       </c>
@@ -4783,7 +4806,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37377</v>
       </c>
@@ -4803,7 +4826,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37408</v>
       </c>
@@ -4823,7 +4846,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37438</v>
       </c>
@@ -4843,7 +4866,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37469</v>
       </c>
@@ -4863,7 +4886,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37500</v>
       </c>
@@ -4883,7 +4906,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37530</v>
       </c>
@@ -4903,7 +4926,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37561</v>
       </c>
@@ -4923,7 +4946,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37591</v>
       </c>
@@ -4949,7 +4972,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>72</v>
@@ -4969,7 +4992,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>67</v>
       </c>
@@ -4991,7 +5014,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37622</v>
       </c>
@@ -5011,7 +5034,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37653</v>
       </c>
@@ -5031,7 +5054,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37681</v>
       </c>
@@ -5051,7 +5074,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37712</v>
       </c>
@@ -5071,7 +5094,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37742</v>
       </c>
@@ -5091,7 +5114,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37773</v>
       </c>
@@ -5111,7 +5134,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37803</v>
       </c>
@@ -5131,7 +5154,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37834</v>
       </c>
@@ -5151,7 +5174,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37865</v>
       </c>
@@ -5171,7 +5194,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37895</v>
       </c>
@@ -5191,7 +5214,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37926</v>
       </c>
@@ -5211,7 +5234,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37956</v>
       </c>
@@ -5235,7 +5258,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>68</v>
       </c>
@@ -5257,7 +5280,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37987</v>
       </c>
@@ -5277,7 +5300,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>38018</v>
       </c>
@@ -5297,7 +5320,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>38047</v>
       </c>
@@ -5317,7 +5340,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>38078</v>
       </c>
@@ -5337,7 +5360,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>38108</v>
       </c>
@@ -5363,7 +5386,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>38139</v>
       </c>
@@ -5383,7 +5406,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38169</v>
       </c>
@@ -5403,7 +5426,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38200</v>
       </c>
@@ -5423,7 +5446,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38231</v>
       </c>
@@ -5443,7 +5466,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38261</v>
       </c>
@@ -5463,7 +5486,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38292</v>
       </c>
@@ -5485,7 +5508,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38322</v>
       </c>
@@ -5509,7 +5532,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>73</v>
       </c>
@@ -5531,7 +5554,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38353</v>
       </c>
@@ -5551,7 +5574,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38384</v>
       </c>
@@ -5571,7 +5594,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38412</v>
       </c>
@@ -5591,7 +5614,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>38443</v>
       </c>
@@ -5611,7 +5634,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38473</v>
       </c>
@@ -5631,7 +5654,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>38504</v>
       </c>
@@ -5651,7 +5674,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38534</v>
       </c>
@@ -5671,7 +5694,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38565</v>
       </c>
@@ -5691,7 +5714,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>38596</v>
       </c>
@@ -5711,7 +5734,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38626</v>
       </c>
@@ -5731,7 +5754,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38657</v>
       </c>
@@ -5751,7 +5774,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38687</v>
       </c>
@@ -5775,7 +5798,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>82</v>
@@ -5797,7 +5820,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>74</v>
       </c>
@@ -5819,7 +5842,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38718</v>
       </c>
@@ -5839,7 +5862,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38749</v>
       </c>
@@ -5859,7 +5882,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38777</v>
       </c>
@@ -5879,7 +5902,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38808</v>
       </c>
@@ -5905,7 +5928,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38838</v>
       </c>
@@ -5925,7 +5948,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38869</v>
       </c>
@@ -5945,7 +5968,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>38899</v>
       </c>
@@ -5965,7 +5988,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38930</v>
       </c>
@@ -5989,7 +6012,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>38961</v>
       </c>
@@ -6009,7 +6032,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38991</v>
       </c>
@@ -6029,7 +6052,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>39022</v>
       </c>
@@ -6049,7 +6072,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>39052</v>
       </c>
@@ -6069,7 +6092,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
         <v>75</v>
       </c>
@@ -6091,7 +6114,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>39083</v>
       </c>
@@ -6111,7 +6134,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>39114</v>
       </c>
@@ -6131,7 +6154,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>39142</v>
       </c>
@@ -6151,7 +6174,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39173</v>
       </c>
@@ -6171,7 +6194,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39203</v>
       </c>
@@ -6191,7 +6214,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>39234</v>
       </c>
@@ -6211,7 +6234,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39264</v>
       </c>
@@ -6231,7 +6254,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39295</v>
       </c>
@@ -6251,7 +6274,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39326</v>
       </c>
@@ -6271,7 +6294,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39356</v>
       </c>
@@ -6291,7 +6314,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39387</v>
       </c>
@@ -6315,7 +6338,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>39417</v>
       </c>
@@ -6339,7 +6362,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="48" t="s">
         <v>76</v>
       </c>
@@ -6361,7 +6384,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>39448</v>
       </c>
@@ -6381,7 +6404,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>39479</v>
       </c>
@@ -6401,7 +6424,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>39508</v>
       </c>
@@ -6421,7 +6444,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>39539</v>
       </c>
@@ -6441,7 +6464,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>39569</v>
       </c>
@@ -6461,7 +6484,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>39600</v>
       </c>
@@ -6481,7 +6504,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>39630</v>
       </c>
@@ -6501,7 +6524,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>39661</v>
       </c>
@@ -6521,7 +6544,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>39692</v>
       </c>
@@ -6541,7 +6564,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>39722</v>
       </c>
@@ -6561,7 +6584,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>39753</v>
       </c>
@@ -6581,7 +6604,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>39783</v>
       </c>
@@ -6605,7 +6628,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="48" t="s">
         <v>88</v>
       </c>
@@ -6627,7 +6650,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>39814</v>
       </c>
@@ -6647,7 +6670,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>39845</v>
       </c>
@@ -6667,7 +6690,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>39873</v>
       </c>
@@ -6687,7 +6710,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>39904</v>
       </c>
@@ -6707,7 +6730,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>39934</v>
       </c>
@@ -6727,7 +6750,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39965</v>
       </c>
@@ -6747,7 +6770,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>39995</v>
       </c>
@@ -6773,7 +6796,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>40026</v>
       </c>
@@ -6793,7 +6816,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>40057</v>
       </c>
@@ -6813,7 +6836,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>40087</v>
       </c>
@@ -6833,7 +6856,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>40118</v>
       </c>
@@ -6853,7 +6876,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>40148</v>
       </c>
@@ -6873,7 +6896,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="48" t="s">
         <v>89</v>
       </c>
@@ -6895,7 +6918,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>40179</v>
       </c>
@@ -6915,7 +6938,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>40210</v>
       </c>
@@ -6935,7 +6958,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40238</v>
       </c>
@@ -6955,7 +6978,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>40269</v>
       </c>
@@ -6975,7 +6998,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>40299</v>
       </c>
@@ -6995,7 +7018,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>40330</v>
       </c>
@@ -7015,7 +7038,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>40360</v>
       </c>
@@ -7037,7 +7060,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>40391</v>
       </c>
@@ -7057,7 +7080,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>40422</v>
       </c>
@@ -7077,7 +7100,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>40452</v>
       </c>
@@ -7097,7 +7120,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>40483</v>
       </c>
@@ -7117,7 +7140,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>40513</v>
       </c>
@@ -7141,7 +7164,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="48" t="s">
         <v>90</v>
       </c>
@@ -7163,7 +7186,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>40544</v>
       </c>
@@ -7183,7 +7206,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>40575</v>
       </c>
@@ -7203,7 +7226,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>40603</v>
       </c>
@@ -7223,7 +7246,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>40634</v>
       </c>
@@ -7243,7 +7266,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>40664</v>
       </c>
@@ -7263,7 +7286,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>40695</v>
       </c>
@@ -7283,7 +7306,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>40725</v>
       </c>
@@ -7303,7 +7326,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>40756</v>
       </c>
@@ -7323,7 +7346,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>40787</v>
       </c>
@@ -7343,7 +7366,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>40817</v>
       </c>
@@ -7363,7 +7386,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>40848</v>
       </c>
@@ -7383,7 +7406,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>40878</v>
       </c>
@@ -7407,7 +7430,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="48" t="s">
         <v>91</v>
       </c>
@@ -7429,7 +7452,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>40909</v>
       </c>
@@ -7455,7 +7478,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>40940</v>
       </c>
@@ -7475,7 +7498,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>40969</v>
       </c>
@@ -7495,7 +7518,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>41000</v>
       </c>
@@ -7515,7 +7538,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>41030</v>
       </c>
@@ -7535,7 +7558,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>41061</v>
       </c>
@@ -7555,7 +7578,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>41091</v>
       </c>
@@ -7575,7 +7598,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>41122</v>
       </c>
@@ -7601,7 +7624,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>41153</v>
       </c>
@@ -7621,7 +7644,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>41183</v>
       </c>
@@ -7641,7 +7664,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>41214</v>
       </c>
@@ -7661,7 +7684,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>41244</v>
       </c>
@@ -7681,7 +7704,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="48" t="s">
         <v>95</v>
       </c>
@@ -7703,7 +7726,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41275</v>
       </c>
@@ -7723,7 +7746,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>41306</v>
       </c>
@@ -7743,7 +7766,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>41334</v>
       </c>
@@ -7763,7 +7786,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>41365</v>
       </c>
@@ -7783,7 +7806,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>41395</v>
       </c>
@@ -7803,7 +7826,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>41426</v>
       </c>
@@ -7823,7 +7846,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>41456</v>
       </c>
@@ -7843,7 +7866,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>41487</v>
       </c>
@@ -7863,7 +7886,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>41518</v>
       </c>
@@ -7883,7 +7906,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>41548</v>
       </c>
@@ -7903,7 +7926,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>41579</v>
       </c>
@@ -7923,7 +7946,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>41609</v>
       </c>
@@ -7947,7 +7970,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="48" t="s">
         <v>96</v>
       </c>
@@ -7969,7 +7992,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>41640</v>
       </c>
@@ -7989,7 +8012,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>41671</v>
       </c>
@@ -8009,7 +8032,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>41699</v>
       </c>
@@ -8033,7 +8056,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>41730</v>
       </c>
@@ -8053,7 +8076,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>41760</v>
       </c>
@@ -8073,7 +8096,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>41791</v>
       </c>
@@ -8093,7 +8116,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>41821</v>
       </c>
@@ -8113,7 +8136,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>41852</v>
       </c>
@@ -8133,7 +8156,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41883</v>
       </c>
@@ -8153,7 +8176,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>41913</v>
       </c>
@@ -8173,7 +8196,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>41944</v>
       </c>
@@ -8193,7 +8216,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>41974</v>
       </c>
@@ -8213,7 +8236,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="48" t="s">
         <v>97</v>
       </c>
@@ -8235,7 +8258,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>42005</v>
       </c>
@@ -8255,7 +8278,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>42036</v>
       </c>
@@ -8275,7 +8298,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>42064</v>
       </c>
@@ -8295,7 +8318,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>42095</v>
       </c>
@@ -8315,7 +8338,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>42125</v>
       </c>
@@ -8335,7 +8358,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>42156</v>
       </c>
@@ -8361,7 +8384,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>42186</v>
       </c>
@@ -8381,7 +8404,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>42217</v>
       </c>
@@ -8401,7 +8424,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>42248</v>
       </c>
@@ -8421,7 +8444,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>42278</v>
       </c>
@@ -8441,7 +8464,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>42309</v>
       </c>
@@ -8461,7 +8484,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42339</v>
       </c>
@@ -8481,7 +8504,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="48" t="s">
         <v>98</v>
       </c>
@@ -8503,7 +8526,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>42370</v>
       </c>
@@ -8523,7 +8546,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>42401</v>
       </c>
@@ -8543,7 +8566,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>42430</v>
       </c>
@@ -8563,7 +8586,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>42461</v>
       </c>
@@ -8583,7 +8606,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42491</v>
       </c>
@@ -8603,7 +8626,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>42522</v>
       </c>
@@ -8623,7 +8646,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>42552</v>
       </c>
@@ -8643,7 +8666,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>42583</v>
       </c>
@@ -8663,7 +8686,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>42614</v>
       </c>
@@ -8683,7 +8706,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>42644</v>
       </c>
@@ -8703,7 +8726,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>42675</v>
       </c>
@@ -8723,7 +8746,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>42705</v>
       </c>
@@ -8747,7 +8770,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="48" t="s">
         <v>99</v>
       </c>
@@ -8769,7 +8792,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>42736</v>
       </c>
@@ -8789,7 +8812,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42767</v>
       </c>
@@ -8809,7 +8832,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>42795</v>
       </c>
@@ -8829,7 +8852,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>42826</v>
       </c>
@@ -8849,7 +8872,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>42856</v>
       </c>
@@ -8869,7 +8892,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>42887</v>
       </c>
@@ -8889,7 +8912,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>42917</v>
       </c>
@@ -8909,7 +8932,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>42948</v>
       </c>
@@ -8929,7 +8952,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>42979</v>
       </c>
@@ -8949,7 +8972,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>43009</v>
       </c>
@@ -8969,7 +8992,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>43040</v>
       </c>
@@ -8989,26 +9012,34 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>43070</v>
       </c>
-      <c r="B287" s="20"/>
-      <c r="C287" s="13"/>
-      <c r="D287" s="39"/>
+      <c r="B287" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C287" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D287" s="39">
+        <v>5</v>
+      </c>
       <c r="E287" s="9"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G287" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H287" s="39"/>
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A288" s="40"/>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" s="48" t="s">
+        <v>105</v>
+      </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
       <c r="D288" s="39"/>
@@ -9023,200 +9054,266 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A289" s="40"/>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289" s="40">
+        <f>EDATE(A287,1)</f>
+        <v>43101</v>
+      </c>
       <c r="B289" s="20"/>
-      <c r="C289" s="13"/>
+      <c r="C289" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D289" s="39"/>
       <c r="E289" s="9"/>
       <c r="F289" s="20"/>
-      <c r="G289" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G289" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H289" s="39"/>
       <c r="I289" s="9"/>
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A290" s="40"/>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290" s="40">
+        <f t="shared" ref="A290:A358" si="0">EDATE(A289,1)</f>
+        <v>43132</v>
+      </c>
       <c r="B290" s="20"/>
-      <c r="C290" s="13"/>
+      <c r="C290" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D290" s="39"/>
       <c r="E290" s="9"/>
       <c r="F290" s="20"/>
-      <c r="G290" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G290" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H290" s="39"/>
       <c r="I290" s="9"/>
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A291" s="40"/>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" s="40">
+        <f t="shared" si="0"/>
+        <v>43160</v>
+      </c>
       <c r="B291" s="20"/>
-      <c r="C291" s="13"/>
+      <c r="C291" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D291" s="39"/>
       <c r="E291" s="9"/>
       <c r="F291" s="20"/>
-      <c r="G291" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G291" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H291" s="39"/>
       <c r="I291" s="9"/>
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A292" s="40"/>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" s="40">
+        <f t="shared" si="0"/>
+        <v>43191</v>
+      </c>
       <c r="B292" s="20"/>
-      <c r="C292" s="13"/>
+      <c r="C292" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D292" s="39"/>
       <c r="E292" s="9"/>
       <c r="F292" s="20"/>
-      <c r="G292" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G292" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H292" s="39"/>
       <c r="I292" s="9"/>
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A293" s="40"/>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" s="40">
+        <f t="shared" si="0"/>
+        <v>43221</v>
+      </c>
       <c r="B293" s="20"/>
-      <c r="C293" s="13"/>
+      <c r="C293" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D293" s="39"/>
       <c r="E293" s="9"/>
       <c r="F293" s="20"/>
-      <c r="G293" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G293" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H293" s="39"/>
       <c r="I293" s="9"/>
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A294" s="40"/>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" s="40">
+        <f t="shared" si="0"/>
+        <v>43252</v>
+      </c>
       <c r="B294" s="20"/>
-      <c r="C294" s="13"/>
+      <c r="C294" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D294" s="39"/>
       <c r="E294" s="9"/>
       <c r="F294" s="20"/>
-      <c r="G294" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G294" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H294" s="39"/>
       <c r="I294" s="9"/>
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A295" s="40"/>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" s="40">
+        <f t="shared" si="0"/>
+        <v>43282</v>
+      </c>
       <c r="B295" s="20"/>
-      <c r="C295" s="13"/>
+      <c r="C295" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D295" s="39"/>
       <c r="E295" s="9"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G295" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H295" s="39"/>
       <c r="I295" s="9"/>
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A296" s="40"/>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296" s="40">
+        <f t="shared" si="0"/>
+        <v>43313</v>
+      </c>
       <c r="B296" s="20"/>
-      <c r="C296" s="13"/>
+      <c r="C296" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D296" s="39"/>
       <c r="E296" s="9"/>
       <c r="F296" s="20"/>
-      <c r="G296" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G296" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H296" s="39"/>
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A297" s="40"/>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297" s="40">
+        <f t="shared" si="0"/>
+        <v>43344</v>
+      </c>
       <c r="B297" s="20"/>
-      <c r="C297" s="13"/>
+      <c r="C297" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D297" s="39"/>
       <c r="E297" s="9"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G297" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H297" s="39"/>
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A298" s="40"/>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" s="40">
+        <f t="shared" si="0"/>
+        <v>43374</v>
+      </c>
       <c r="B298" s="20"/>
-      <c r="C298" s="13"/>
+      <c r="C298" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D298" s="39"/>
       <c r="E298" s="9"/>
       <c r="F298" s="20"/>
-      <c r="G298" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G298" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H298" s="39"/>
       <c r="I298" s="9"/>
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A299" s="40"/>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" s="40">
+        <f t="shared" si="0"/>
+        <v>43405</v>
+      </c>
       <c r="B299" s="20"/>
-      <c r="C299" s="13"/>
+      <c r="C299" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D299" s="39"/>
       <c r="E299" s="9"/>
       <c r="F299" s="20"/>
-      <c r="G299" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G299" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H299" s="39"/>
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A300" s="40"/>
-      <c r="B300" s="20"/>
-      <c r="C300" s="13"/>
-      <c r="D300" s="39"/>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300" s="40">
+        <f t="shared" si="0"/>
+        <v>43435</v>
+      </c>
+      <c r="B300" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C300" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D300" s="39">
+        <v>5</v>
+      </c>
       <c r="E300" s="9"/>
       <c r="F300" s="20"/>
-      <c r="G300" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G300" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H300" s="39"/>
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A301" s="40"/>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" s="48" t="s">
+        <v>107</v>
+      </c>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
       <c r="D301" s="39"/>
@@ -9231,200 +9328,266 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A302" s="40"/>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302" s="40">
+        <f>EDATE(A300,1)</f>
+        <v>43466</v>
+      </c>
       <c r="B302" s="20"/>
-      <c r="C302" s="13"/>
+      <c r="C302" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D302" s="39"/>
       <c r="E302" s="9"/>
       <c r="F302" s="20"/>
-      <c r="G302" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G302" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H302" s="39"/>
       <c r="I302" s="9"/>
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A303" s="40"/>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" s="40">
+        <f t="shared" si="0"/>
+        <v>43497</v>
+      </c>
       <c r="B303" s="20"/>
-      <c r="C303" s="13"/>
+      <c r="C303" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D303" s="39"/>
       <c r="E303" s="9"/>
       <c r="F303" s="20"/>
-      <c r="G303" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G303" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H303" s="39"/>
       <c r="I303" s="9"/>
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A304" s="40"/>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" s="40">
+        <f t="shared" si="0"/>
+        <v>43525</v>
+      </c>
       <c r="B304" s="20"/>
-      <c r="C304" s="13"/>
+      <c r="C304" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D304" s="39"/>
       <c r="E304" s="9"/>
       <c r="F304" s="20"/>
-      <c r="G304" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G304" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H304" s="39"/>
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A305" s="40"/>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" s="40">
+        <f t="shared" si="0"/>
+        <v>43556</v>
+      </c>
       <c r="B305" s="20"/>
-      <c r="C305" s="13"/>
+      <c r="C305" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D305" s="39"/>
       <c r="E305" s="9"/>
       <c r="F305" s="20"/>
-      <c r="G305" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G305" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H305" s="39"/>
       <c r="I305" s="9"/>
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A306" s="40"/>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" s="40">
+        <f>EDATE(A305,1)</f>
+        <v>43586</v>
+      </c>
       <c r="B306" s="20"/>
-      <c r="C306" s="13"/>
+      <c r="C306" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D306" s="39"/>
       <c r="E306" s="9"/>
       <c r="F306" s="20"/>
-      <c r="G306" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G306" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H306" s="39"/>
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A307" s="40"/>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" s="40">
+        <f t="shared" si="0"/>
+        <v>43617</v>
+      </c>
       <c r="B307" s="20"/>
-      <c r="C307" s="13"/>
+      <c r="C307" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D307" s="39"/>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G307" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H307" s="39"/>
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A308" s="40"/>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" s="40">
+        <f t="shared" si="0"/>
+        <v>43647</v>
+      </c>
       <c r="B308" s="20"/>
-      <c r="C308" s="13"/>
+      <c r="C308" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D308" s="39"/>
       <c r="E308" s="9"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G308" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H308" s="39"/>
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A309" s="40"/>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" s="40">
+        <f t="shared" si="0"/>
+        <v>43678</v>
+      </c>
       <c r="B309" s="20"/>
-      <c r="C309" s="13"/>
+      <c r="C309" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D309" s="39"/>
       <c r="E309" s="9"/>
       <c r="F309" s="20"/>
-      <c r="G309" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G309" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H309" s="39"/>
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A310" s="40"/>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" s="40">
+        <f t="shared" si="0"/>
+        <v>43709</v>
+      </c>
       <c r="B310" s="20"/>
-      <c r="C310" s="13"/>
+      <c r="C310" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D310" s="39"/>
       <c r="E310" s="9"/>
       <c r="F310" s="20"/>
-      <c r="G310" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G310" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H310" s="39"/>
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A311" s="40"/>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" s="40">
+        <f t="shared" si="0"/>
+        <v>43739</v>
+      </c>
       <c r="B311" s="20"/>
-      <c r="C311" s="13"/>
+      <c r="C311" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D311" s="39"/>
       <c r="E311" s="9"/>
       <c r="F311" s="20"/>
-      <c r="G311" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G311" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H311" s="39"/>
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A312" s="40"/>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" s="40">
+        <f t="shared" si="0"/>
+        <v>43770</v>
+      </c>
       <c r="B312" s="20"/>
-      <c r="C312" s="13"/>
+      <c r="C312" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D312" s="39"/>
       <c r="E312" s="9"/>
       <c r="F312" s="20"/>
-      <c r="G312" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G312" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H312" s="39"/>
       <c r="I312" s="9"/>
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A313" s="40"/>
-      <c r="B313" s="20"/>
-      <c r="C313" s="13"/>
-      <c r="D313" s="39"/>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" s="40">
+        <f t="shared" si="0"/>
+        <v>43800</v>
+      </c>
+      <c r="B313" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C313" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D313" s="39">
+        <v>5</v>
+      </c>
       <c r="E313" s="9"/>
       <c r="F313" s="20"/>
-      <c r="G313" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G313" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H313" s="39"/>
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A314" s="40"/>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" s="48" t="s">
+        <v>108</v>
+      </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
       <c r="D314" s="39"/>
@@ -9439,200 +9602,266 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A315" s="40"/>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" s="40">
+        <f>EDATE(A313,1)</f>
+        <v>43831</v>
+      </c>
       <c r="B315" s="20"/>
-      <c r="C315" s="13"/>
+      <c r="C315" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D315" s="39"/>
       <c r="E315" s="9"/>
       <c r="F315" s="20"/>
-      <c r="G315" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G315" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H315" s="39"/>
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A316" s="40"/>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" s="40">
+        <f t="shared" si="0"/>
+        <v>43862</v>
+      </c>
       <c r="B316" s="20"/>
-      <c r="C316" s="13"/>
+      <c r="C316" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D316" s="39"/>
       <c r="E316" s="9"/>
       <c r="F316" s="20"/>
-      <c r="G316" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G316" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H316" s="39"/>
       <c r="I316" s="9"/>
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A317" s="40"/>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" s="40">
+        <f t="shared" si="0"/>
+        <v>43891</v>
+      </c>
       <c r="B317" s="20"/>
-      <c r="C317" s="13"/>
+      <c r="C317" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D317" s="39"/>
       <c r="E317" s="9"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G317" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A318" s="40"/>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318" s="40">
+        <f>EDATE(A317,1)</f>
+        <v>43922</v>
+      </c>
       <c r="B318" s="20"/>
-      <c r="C318" s="13"/>
+      <c r="C318" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D318" s="39"/>
       <c r="E318" s="9"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G318" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H318" s="39"/>
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A319" s="40"/>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319" s="40">
+        <f t="shared" si="0"/>
+        <v>43952</v>
+      </c>
       <c r="B319" s="20"/>
-      <c r="C319" s="13"/>
+      <c r="C319" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D319" s="39"/>
       <c r="E319" s="9"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G319" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H319" s="39"/>
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A320" s="40"/>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320" s="40">
+        <f t="shared" si="0"/>
+        <v>43983</v>
+      </c>
       <c r="B320" s="20"/>
-      <c r="C320" s="13"/>
+      <c r="C320" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D320" s="39"/>
       <c r="E320" s="9"/>
       <c r="F320" s="20"/>
-      <c r="G320" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G320" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H320" s="39"/>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A321" s="40"/>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" s="40">
+        <f t="shared" si="0"/>
+        <v>44013</v>
+      </c>
       <c r="B321" s="20"/>
-      <c r="C321" s="13"/>
+      <c r="C321" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D321" s="39"/>
       <c r="E321" s="9"/>
       <c r="F321" s="20"/>
-      <c r="G321" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G321" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H321" s="39"/>
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A322" s="40"/>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" s="40">
+        <f t="shared" si="0"/>
+        <v>44044</v>
+      </c>
       <c r="B322" s="20"/>
-      <c r="C322" s="13"/>
+      <c r="C322" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D322" s="39"/>
       <c r="E322" s="9"/>
       <c r="F322" s="20"/>
-      <c r="G322" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G322" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H322" s="39"/>
       <c r="I322" s="9"/>
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A323" s="40"/>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" s="40">
+        <f t="shared" si="0"/>
+        <v>44075</v>
+      </c>
       <c r="B323" s="20"/>
-      <c r="C323" s="13"/>
+      <c r="C323" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D323" s="39"/>
       <c r="E323" s="9"/>
       <c r="F323" s="20"/>
-      <c r="G323" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G323" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H323" s="39"/>
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A324" s="40"/>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" s="40">
+        <f t="shared" si="0"/>
+        <v>44105</v>
+      </c>
       <c r="B324" s="20"/>
-      <c r="C324" s="13"/>
+      <c r="C324" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D324" s="39"/>
       <c r="E324" s="9"/>
       <c r="F324" s="20"/>
-      <c r="G324" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G324" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H324" s="39"/>
       <c r="I324" s="9"/>
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A325" s="40"/>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" s="40">
+        <f t="shared" si="0"/>
+        <v>44136</v>
+      </c>
       <c r="B325" s="20"/>
-      <c r="C325" s="13"/>
+      <c r="C325" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D325" s="39"/>
       <c r="E325" s="9"/>
       <c r="F325" s="20"/>
-      <c r="G325" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G325" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H325" s="39"/>
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A326" s="40"/>
-      <c r="B326" s="20"/>
-      <c r="C326" s="13"/>
-      <c r="D326" s="39"/>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" s="40">
+        <f t="shared" si="0"/>
+        <v>44166</v>
+      </c>
+      <c r="B326" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C326" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D326" s="39">
+        <v>5</v>
+      </c>
       <c r="E326" s="9"/>
       <c r="F326" s="20"/>
-      <c r="G326" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G326" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H326" s="39"/>
       <c r="I326" s="9"/>
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A327" s="40"/>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" s="48" t="s">
+        <v>109</v>
+      </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
       <c r="D327" s="39"/>
@@ -9647,200 +9876,266 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A328" s="40"/>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" s="40">
+        <f>EDATE(A326,1)</f>
+        <v>44197</v>
+      </c>
       <c r="B328" s="20"/>
-      <c r="C328" s="13"/>
+      <c r="C328" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D328" s="39"/>
       <c r="E328" s="9"/>
       <c r="F328" s="20"/>
-      <c r="G328" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G328" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H328" s="39"/>
       <c r="I328" s="9"/>
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A329" s="40"/>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" s="40">
+        <f t="shared" si="0"/>
+        <v>44228</v>
+      </c>
       <c r="B329" s="20"/>
-      <c r="C329" s="13"/>
+      <c r="C329" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D329" s="39"/>
       <c r="E329" s="9"/>
       <c r="F329" s="20"/>
-      <c r="G329" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G329" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H329" s="39"/>
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A330" s="40"/>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" s="40">
+        <f t="shared" si="0"/>
+        <v>44256</v>
+      </c>
       <c r="B330" s="20"/>
-      <c r="C330" s="13"/>
+      <c r="C330" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D330" s="39"/>
       <c r="E330" s="9"/>
       <c r="F330" s="20"/>
-      <c r="G330" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G330" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H330" s="39"/>
       <c r="I330" s="9"/>
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A331" s="40"/>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" s="40">
+        <f t="shared" si="0"/>
+        <v>44287</v>
+      </c>
       <c r="B331" s="20"/>
-      <c r="C331" s="13"/>
+      <c r="C331" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D331" s="39"/>
       <c r="E331" s="9"/>
       <c r="F331" s="20"/>
-      <c r="G331" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G331" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H331" s="39"/>
       <c r="I331" s="9"/>
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A332" s="40"/>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" s="40">
+        <f t="shared" si="0"/>
+        <v>44317</v>
+      </c>
       <c r="B332" s="20"/>
-      <c r="C332" s="13"/>
+      <c r="C332" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D332" s="39"/>
       <c r="E332" s="9"/>
       <c r="F332" s="20"/>
-      <c r="G332" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G332" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H332" s="39"/>
       <c r="I332" s="9"/>
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A333" s="40"/>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" s="40">
+        <f t="shared" si="0"/>
+        <v>44348</v>
+      </c>
       <c r="B333" s="20"/>
-      <c r="C333" s="13"/>
+      <c r="C333" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D333" s="39"/>
       <c r="E333" s="9"/>
       <c r="F333" s="20"/>
-      <c r="G333" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G333" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H333" s="39"/>
       <c r="I333" s="9"/>
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A334" s="40"/>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" s="40">
+        <f t="shared" si="0"/>
+        <v>44378</v>
+      </c>
       <c r="B334" s="20"/>
-      <c r="C334" s="13"/>
+      <c r="C334" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D334" s="39"/>
       <c r="E334" s="9"/>
       <c r="F334" s="20"/>
-      <c r="G334" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G334" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H334" s="39"/>
       <c r="I334" s="9"/>
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A335" s="40"/>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" s="40">
+        <f t="shared" si="0"/>
+        <v>44409</v>
+      </c>
       <c r="B335" s="20"/>
-      <c r="C335" s="13"/>
+      <c r="C335" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D335" s="39"/>
       <c r="E335" s="9"/>
       <c r="F335" s="20"/>
-      <c r="G335" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G335" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H335" s="39"/>
       <c r="I335" s="9"/>
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A336" s="40"/>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" s="40">
+        <f t="shared" si="0"/>
+        <v>44440</v>
+      </c>
       <c r="B336" s="20"/>
-      <c r="C336" s="13"/>
+      <c r="C336" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D336" s="39"/>
       <c r="E336" s="9"/>
       <c r="F336" s="20"/>
-      <c r="G336" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G336" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H336" s="39"/>
       <c r="I336" s="9"/>
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337" s="40"/>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" s="40">
+        <f t="shared" si="0"/>
+        <v>44470</v>
+      </c>
       <c r="B337" s="20"/>
-      <c r="C337" s="13"/>
+      <c r="C337" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D337" s="39"/>
       <c r="E337" s="9"/>
       <c r="F337" s="20"/>
-      <c r="G337" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G337" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H337" s="39"/>
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A338" s="40"/>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" s="40">
+        <f t="shared" si="0"/>
+        <v>44501</v>
+      </c>
       <c r="B338" s="20"/>
-      <c r="C338" s="13"/>
+      <c r="C338" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D338" s="39"/>
       <c r="E338" s="9"/>
       <c r="F338" s="20"/>
-      <c r="G338" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G338" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H338" s="39"/>
       <c r="I338" s="9"/>
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A339" s="40"/>
-      <c r="B339" s="20"/>
-      <c r="C339" s="13"/>
-      <c r="D339" s="39"/>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="40">
+        <f t="shared" si="0"/>
+        <v>44531</v>
+      </c>
+      <c r="B339" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C339" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D339" s="39">
+        <v>5</v>
+      </c>
       <c r="E339" s="9"/>
       <c r="F339" s="20"/>
-      <c r="G339" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G339" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H339" s="39"/>
       <c r="I339" s="9"/>
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A340" s="40"/>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" s="48" t="s">
+        <v>110</v>
+      </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
       <c r="D340" s="39"/>
@@ -9855,200 +10150,264 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A341" s="40"/>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" s="40">
+        <f>EDATE(A339,1)</f>
+        <v>44562</v>
+      </c>
       <c r="B341" s="20"/>
-      <c r="C341" s="13"/>
+      <c r="C341" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D341" s="39"/>
       <c r="E341" s="9"/>
       <c r="F341" s="20"/>
-      <c r="G341" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G341" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H341" s="39"/>
       <c r="I341" s="9"/>
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A342" s="40"/>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" s="40">
+        <f t="shared" si="0"/>
+        <v>44593</v>
+      </c>
       <c r="B342" s="20"/>
-      <c r="C342" s="13"/>
+      <c r="C342" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D342" s="39"/>
       <c r="E342" s="9"/>
       <c r="F342" s="20"/>
-      <c r="G342" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G342" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H342" s="39"/>
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A343" s="40"/>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" s="40">
+        <f t="shared" si="0"/>
+        <v>44621</v>
+      </c>
       <c r="B343" s="20"/>
-      <c r="C343" s="13"/>
+      <c r="C343" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D343" s="39"/>
       <c r="E343" s="9"/>
       <c r="F343" s="20"/>
-      <c r="G343" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G343" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H343" s="39"/>
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A344" s="40"/>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="40">
+        <f t="shared" si="0"/>
+        <v>44652</v>
+      </c>
       <c r="B344" s="20"/>
-      <c r="C344" s="13"/>
+      <c r="C344" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D344" s="39"/>
       <c r="E344" s="9"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G344" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H344" s="39"/>
       <c r="I344" s="9"/>
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A345" s="40"/>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" s="40">
+        <f t="shared" si="0"/>
+        <v>44682</v>
+      </c>
       <c r="B345" s="20"/>
-      <c r="C345" s="13"/>
+      <c r="C345" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D345" s="39"/>
       <c r="E345" s="9"/>
       <c r="F345" s="20"/>
-      <c r="G345" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G345" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H345" s="39"/>
       <c r="I345" s="9"/>
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A346" s="40"/>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" s="40">
+        <f t="shared" si="0"/>
+        <v>44713</v>
+      </c>
       <c r="B346" s="20"/>
-      <c r="C346" s="13"/>
+      <c r="C346" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D346" s="39"/>
       <c r="E346" s="9"/>
       <c r="F346" s="20"/>
-      <c r="G346" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G346" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H346" s="39"/>
       <c r="I346" s="9"/>
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A347" s="40"/>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" s="40">
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
       <c r="B347" s="20"/>
-      <c r="C347" s="13"/>
+      <c r="C347" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D347" s="39"/>
       <c r="E347" s="9"/>
       <c r="F347" s="20"/>
-      <c r="G347" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G347" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H347" s="39"/>
       <c r="I347" s="9"/>
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A348" s="40"/>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348" s="40">
+        <f t="shared" si="0"/>
+        <v>44774</v>
+      </c>
       <c r="B348" s="20"/>
-      <c r="C348" s="13"/>
+      <c r="C348" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D348" s="39"/>
       <c r="E348" s="9"/>
       <c r="F348" s="20"/>
-      <c r="G348" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G348" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H348" s="39"/>
       <c r="I348" s="9"/>
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A349" s="40"/>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" s="40">
+        <f t="shared" si="0"/>
+        <v>44805</v>
+      </c>
       <c r="B349" s="20"/>
-      <c r="C349" s="13"/>
+      <c r="C349" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D349" s="39"/>
       <c r="E349" s="9"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G349" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H349" s="39"/>
       <c r="I349" s="9"/>
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A350" s="40"/>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="40">
+        <f t="shared" si="0"/>
+        <v>44835</v>
+      </c>
       <c r="B350" s="20"/>
-      <c r="C350" s="13"/>
+      <c r="C350" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D350" s="39"/>
       <c r="E350" s="9"/>
       <c r="F350" s="20"/>
-      <c r="G350" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G350" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H350" s="39"/>
       <c r="I350" s="9"/>
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A351" s="40"/>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="40">
+        <f t="shared" si="0"/>
+        <v>44866</v>
+      </c>
       <c r="B351" s="20"/>
-      <c r="C351" s="13"/>
+      <c r="C351" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D351" s="39"/>
       <c r="E351" s="9"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G351" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H351" s="39"/>
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A352" s="40"/>
-      <c r="B352" s="20"/>
-      <c r="C352" s="13"/>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="40">
+        <f t="shared" si="0"/>
+        <v>44896</v>
+      </c>
+      <c r="B352" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C352" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D352" s="39"/>
       <c r="E352" s="9"/>
       <c r="F352" s="20"/>
-      <c r="G352" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G352" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H352" s="39"/>
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A353" s="40"/>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" s="48" t="s">
+        <v>111</v>
+      </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
       <c r="D353" s="39"/>
@@ -10063,56 +10422,74 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A354" s="40"/>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" s="40">
+        <f>EDATE(A352,1)</f>
+        <v>44927</v>
+      </c>
       <c r="B354" s="20"/>
-      <c r="C354" s="13"/>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D354" s="39"/>
       <c r="E354" s="9"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G354" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H354" s="39"/>
       <c r="I354" s="9"/>
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A355" s="40"/>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" s="40">
+        <f t="shared" si="0"/>
+        <v>44958</v>
+      </c>
       <c r="B355" s="20"/>
-      <c r="C355" s="13"/>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D355" s="39"/>
       <c r="E355" s="9"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G355" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H355" s="39"/>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A356" s="40"/>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="40">
+        <f t="shared" si="0"/>
+        <v>44986</v>
+      </c>
       <c r="B356" s="20"/>
-      <c r="C356" s="13"/>
+      <c r="C356" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D356" s="39"/>
       <c r="E356" s="9"/>
       <c r="F356" s="20"/>
-      <c r="G356" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G356" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H356" s="39"/>
       <c r="I356" s="9"/>
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A357" s="40"/>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="40">
+        <f t="shared" si="0"/>
+        <v>45017</v>
+      </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
       <c r="D357" s="39"/>
@@ -10127,8 +10504,11 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A358" s="40"/>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="40">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
       <c r="D358" s="39"/>
@@ -10143,8 +10523,11 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A359" s="40"/>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="40">
+        <f t="shared" ref="A359:A360" si="1">EDATE(A358,1)</f>
+        <v>45078</v>
+      </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
       <c r="D359" s="39"/>
@@ -10159,8 +10542,11 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360" s="40"/>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="40">
+        <f t="shared" si="1"/>
+        <v>45108</v>
+      </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
       <c r="D360" s="39"/>
@@ -10175,7 +10561,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -10191,7 +10577,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -10207,7 +10593,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -10223,7 +10609,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -10239,7 +10625,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -10255,7 +10641,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -10271,7 +10657,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -10287,7 +10673,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -10303,7 +10689,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -10319,7 +10705,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -10335,7 +10721,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -10351,7 +10737,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -10367,7 +10753,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -10383,7 +10769,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -10399,7 +10785,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -10415,7 +10801,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -10431,7 +10817,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -10447,7 +10833,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -10463,7 +10849,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -10479,7 +10865,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -10495,7 +10881,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -10511,7 +10897,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -10527,7 +10913,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -10543,7 +10929,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -10559,7 +10945,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -10575,7 +10961,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -10591,7 +10977,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -10607,7 +10993,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -10623,7 +11009,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -10639,7 +11025,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -10655,7 +11041,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -10671,7 +11057,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -10687,7 +11073,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -10703,7 +11089,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10719,7 +11105,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10735,7 +11121,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10751,7 +11137,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10767,7 +11153,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10783,7 +11169,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10799,7 +11185,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10815,7 +11201,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10831,7 +11217,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10847,7 +11233,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10863,7 +11249,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10879,7 +11265,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10895,7 +11281,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10911,7 +11297,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10927,7 +11313,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10943,7 +11329,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10959,7 +11345,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10975,7 +11361,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10991,7 +11377,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -11007,7 +11393,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -11023,7 +11409,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -11039,7 +11425,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -11055,7 +11441,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -11071,7 +11457,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11087,7 +11473,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11103,7 +11489,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11119,7 +11505,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -11135,7 +11521,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11151,7 +11537,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11167,7 +11553,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11183,7 +11569,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11199,7 +11585,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11215,7 +11601,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11231,7 +11617,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11247,7 +11633,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11263,7 +11649,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11279,7 +11665,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11295,7 +11681,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11311,7 +11697,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11327,7 +11713,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11343,7 +11729,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11359,7 +11745,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11375,7 +11761,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11391,7 +11777,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11407,7 +11793,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11423,7 +11809,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11439,7 +11825,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11455,7 +11841,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11471,7 +11857,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11487,21 +11873,117 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A443" s="41"/>
-      <c r="B443" s="15"/>
-      <c r="C443" s="42"/>
-      <c r="D443" s="43"/>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A443" s="40"/>
+      <c r="B443" s="20"/>
+      <c r="C443" s="13"/>
+      <c r="D443" s="39"/>
       <c r="E443" s="9"/>
-      <c r="F443" s="15"/>
-      <c r="G443" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H443" s="43"/>
+      <c r="F443" s="20"/>
+      <c r="G443" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H443" s="39"/>
       <c r="I443" s="9"/>
-      <c r="J443" s="12"/>
-      <c r="K443" s="15"/>
+      <c r="J443" s="11"/>
+      <c r="K443" s="20"/>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A444" s="40"/>
+      <c r="B444" s="20"/>
+      <c r="C444" s="13"/>
+      <c r="D444" s="39"/>
+      <c r="E444" s="9"/>
+      <c r="F444" s="20"/>
+      <c r="G444" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H444" s="39"/>
+      <c r="I444" s="9"/>
+      <c r="J444" s="11"/>
+      <c r="K444" s="20"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A445" s="40"/>
+      <c r="B445" s="20"/>
+      <c r="C445" s="13"/>
+      <c r="D445" s="39"/>
+      <c r="E445" s="9"/>
+      <c r="F445" s="20"/>
+      <c r="G445" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H445" s="39"/>
+      <c r="I445" s="9"/>
+      <c r="J445" s="11"/>
+      <c r="K445" s="20"/>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A446" s="40"/>
+      <c r="B446" s="20"/>
+      <c r="C446" s="13"/>
+      <c r="D446" s="39"/>
+      <c r="E446" s="9"/>
+      <c r="F446" s="20"/>
+      <c r="G446" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H446" s="39"/>
+      <c r="I446" s="9"/>
+      <c r="J446" s="11"/>
+      <c r="K446" s="20"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447" s="40"/>
+      <c r="B447" s="20"/>
+      <c r="C447" s="13"/>
+      <c r="D447" s="39"/>
+      <c r="E447" s="9"/>
+      <c r="F447" s="20"/>
+      <c r="G447" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H447" s="39"/>
+      <c r="I447" s="9"/>
+      <c r="J447" s="11"/>
+      <c r="K447" s="20"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A448" s="40"/>
+      <c r="B448" s="20"/>
+      <c r="C448" s="13"/>
+      <c r="D448" s="39"/>
+      <c r="E448" s="9"/>
+      <c r="F448" s="20"/>
+      <c r="G448" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H448" s="39"/>
+      <c r="I448" s="9"/>
+      <c r="J448" s="11"/>
+      <c r="K448" s="20"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A449" s="41"/>
+      <c r="B449" s="15"/>
+      <c r="C449" s="42"/>
+      <c r="D449" s="43"/>
+      <c r="E449" s="9"/>
+      <c r="F449" s="15"/>
+      <c r="G449" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H449" s="43"/>
+      <c r="I449" s="9"/>
+      <c r="J449" s="12"/>
+      <c r="K449" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11552,21 +12034,21 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -11579,7 +12061,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11608,7 +12090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -11628,17 +12110,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11659,7 +12141,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11686,7 +12168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11712,7 +12194,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11738,7 +12220,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11764,7 +12246,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11790,7 +12272,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11816,7 +12298,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11842,7 +12324,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11868,7 +12350,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11888,7 +12370,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11908,7 +12390,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11928,7 +12410,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11949,7 +12431,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11970,7 +12452,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11991,7 +12473,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12012,7 +12494,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12033,7 +12515,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12054,7 +12536,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12075,7 +12557,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12096,7 +12578,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12117,7 +12599,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12138,7 +12620,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12159,7 +12641,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12180,7 +12662,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12201,7 +12683,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12222,7 +12704,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12243,7 +12725,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12264,7 +12746,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12285,7 +12767,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12306,7 +12788,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12327,7 +12809,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12348,7 +12830,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12357,7 +12839,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12366,7 +12848,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12375,7 +12857,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12384,7 +12866,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12393,7 +12875,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12402,7 +12884,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12411,7 +12893,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12420,7 +12902,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12429,7 +12911,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12438,7 +12920,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12447,7 +12929,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12456,7 +12938,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12465,7 +12947,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12474,7 +12956,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12483,7 +12965,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12492,7 +12974,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12501,7 +12983,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12510,7 +12992,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12519,7 +13001,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12528,7 +13010,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12537,7 +13019,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12546,7 +13028,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12555,7 +13037,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12564,7 +13046,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12573,7 +13055,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12582,7 +13064,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12591,7 +13073,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12600,7 +13082,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12609,7 +13091,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/LUNA, ROMEO.xlsx
+++ b/REGULAR/OJT/NEW DONE/LUNA, ROMEO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
   <si>
     <t>PERIOD</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>12/12-16/2022</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1243,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,7 +1286,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1350,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1410,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1476,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1539,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1637,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1696,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,7 +1761,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1804,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1879,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2065,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2131,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2189,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2255,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2311,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2386,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2429,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2495,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2551,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2649,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2712,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,9 +3159,9 @@
   <dimension ref="A2:K449"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A345" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A342" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C357" sqref="C357"/>
+      <selection pane="bottomLeft" activeCell="D353" sqref="D353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3317,7 +3320,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>270.91700000000003</v>
+        <v>265.91700000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -10392,7 +10395,9 @@
       <c r="C352" s="13">
         <v>1.25</v>
       </c>
-      <c r="D352" s="39"/>
+      <c r="D352" s="39">
+        <v>5</v>
+      </c>
       <c r="E352" s="9"/>
       <c r="F352" s="20"/>
       <c r="G352" s="13">
@@ -10402,7 +10407,9 @@
       <c r="H352" s="39"/>
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
-      <c r="K352" s="20"/>
+      <c r="K352" s="20" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="48" t="s">
